--- a/HR Data Analytics Dashboard.xlsx
+++ b/HR Data Analytics Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8872.ARDIANET\Desktop\Data analytics Projects\HR Analytics Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8F24F5-FB8B-42E0-9B22-C3044E005418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690D9FA-6007-4B10-A6D2-B27643B7208C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{089486C0-8024-4DF0-8679-460EA85F5DE0}"/>
   </bookViews>
@@ -17,16 +17,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">'[2]Job Role Wise Attrition'!$D$4:$D$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'[2]Job Role Wise Attrition'!$E$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'[2]Job Role Wise Attrition'!$E$4:$E$12</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'[1]Marital Status'!$D$4:$D$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'[1]Marital Status'!$E$4:$E$6</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'[2]Marital Status'!$D$4:$D$6</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'[2]Marital Status'!$E$4:$E$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'[1]Job Role Wise Attrition'!$D$4:$D$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'[1]Job Role Wise Attrition'!$E$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'[1]Job Role Wise Attrition'!$E$4:$E$12</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'[1]Marital Status'!$D$4:$D$6</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'[1]Marital Status'!$E$4:$E$6</definedName>
     <definedName name="Slicer_Department">#N/A</definedName>
     <definedName name="Slicer_Education_Field2">#N/A</definedName>
     <definedName name="Slicer_Gender1">#N/A</definedName>
@@ -35,14 +32,14 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="3" r:id="rId4"/>
+        <pivotCache cacheId="0" r:id="rId3"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
         <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
-        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -243,9 +240,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[2]Rating!$B$6</c:f>
+              <c:f>[1]Rating!$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2.6265306122448981</c:v>
@@ -274,9 +271,9 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>[2]Rating!$B$7</c:f>
+              <c:f>[1]Rating!$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.3734693877551019</c:v>
@@ -329,7 +326,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -457,9 +454,9 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>[2]Rating!$B$6:$B$7</c:f>
+              <c:f>[1]Rating!$B$6:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2.6265306122448981</c:v>
@@ -608,9 +605,9 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>[2]Gender!$C$9:$C$10</c:f>
+              <c:f>[1]Gender!$C$9:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
@@ -762,9 +759,9 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>[2]Gender!$C$9:$C$10</c:f>
+              <c:f>[1]Gender!$C$9:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
@@ -3087,10 +3084,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3100,7 +3097,7 @@
         <cx:series layoutId="treemap" uniqueId="{E7566CE5-03C9-4AAD-AEBD-71265293A34D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Attrition</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3172,10 +3169,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.5</cx:f>
+        <cx:f>_xlchart.v2.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.6</cx:f>
+        <cx:f>_xlchart.v2.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10956,7 +10953,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="[2]KPI!A7">
+      <xdr:sp macro="" textlink="[1]KPI!A7">
         <xdr:nvSpPr>
           <xdr:cNvPr id="115" name="TextBox 114">
             <a:extLst>
@@ -11074,7 +11071,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="[2]KPI!B7">
+      <xdr:sp macro="" textlink="[1]KPI!B7">
         <xdr:nvSpPr>
           <xdr:cNvPr id="117" name="TextBox 116">
             <a:extLst>
@@ -11198,7 +11195,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="[2]KPI!C7">
+      <xdr:sp macro="" textlink="[1]KPI!C7">
         <xdr:nvSpPr>
           <xdr:cNvPr id="119" name="TextBox 118">
             <a:extLst>
@@ -11331,7 +11328,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="[2]KPI!E7">
+      <xdr:sp macro="" textlink="[1]KPI!E7">
         <xdr:nvSpPr>
           <xdr:cNvPr id="121" name="TextBox 120">
             <a:extLst>
@@ -11464,7 +11461,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="[2]KPI!H7">
+      <xdr:sp macro="" textlink="[1]KPI!H7">
         <xdr:nvSpPr>
           <xdr:cNvPr id="123" name="TextBox 122">
             <a:extLst>
@@ -11898,7 +11895,7 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="[2]Rating!$B$6">
+      <xdr:sp macro="" textlink="[1]Rating!$B$6">
         <xdr:nvSpPr>
           <xdr:cNvPr id="134" name="TextBox 133">
             <a:extLst>
@@ -12619,7 +12616,7 @@
             </a:prstGeom>
           </xdr:spPr>
         </xdr:pic>
-        <xdr:sp macro="" textlink="[2]Gender!$B$10">
+        <xdr:sp macro="" textlink="[1]Gender!$B$10">
           <xdr:nvSpPr>
             <xdr:cNvPr id="169" name="TextBox 168">
               <a:extLst>
@@ -12682,7 +12679,7 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="" textlink="[2]Gender!$B$9">
+        <xdr:sp macro="" textlink="[1]Gender!$B$9">
           <xdr:nvSpPr>
             <xdr:cNvPr id="170" name="TextBox 169">
               <a:extLst>
@@ -13101,8 +13098,8 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="143" name="Gender 2">
@@ -13125,7 +13122,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -14010,8 +14007,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="160" name="Department 1">
@@ -14034,7 +14031,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -14073,8 +14070,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="161" name="Education Field 3">
@@ -14097,7 +14094,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -14309,84 +14306,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="KPI"/>
-      <sheetName val="Rating"/>
-      <sheetName val="Gender"/>
-      <sheetName val="Education wise Attrition"/>
-      <sheetName val="Job Role Wise Attrition"/>
-      <sheetName val="Department "/>
-      <sheetName val="Age Group"/>
-      <sheetName val="Marital Status"/>
-      <sheetName val="Data"/>
-      <sheetName val="Images"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="B6">
-            <v>2.6265306122448981</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.3734693877551019</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="9">
-          <cell r="C9">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0.6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>Divorced</v>
-          </cell>
-          <cell r="E4">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>Married</v>
-          </cell>
-          <cell r="E5">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Single</v>
-          </cell>
-          <cell r="E6">
-            <v>120</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
